--- a/TimesheetWade.xlsx
+++ b/TimesheetWade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Windows Files\Github\KiCad-PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5CC7BB-39EE-43AF-BDD1-2BBAC7778960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D045D3-0BEE-43F1-A5BC-0D9AE1A16A29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
   <si>
     <t>Week starting:</t>
   </si>
@@ -58,9 +58,6 @@
   <si>
     <t>Total:</t>
   </si>
-  <si>
-    <t>Monday</t>
-  </si>
 </sst>
 </file>
 
@@ -71,18 +68,11 @@
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
     <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -128,6 +118,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -220,29 +225,31 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="3" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="3" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
@@ -568,19 +575,19 @@
   </sheetPr>
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -603,34 +610,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10">
         <v>43962</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="B5" s="11">
         <f>B3</f>
-        <v>43962</v>
-      </c>
-      <c r="B5" s="4">
-        <f>B3</f>
-        <v>43962</v>
-      </c>
-      <c r="C5" s="2">
+        <v>43983</v>
+      </c>
+      <c r="C5" s="12">
         <v>0.6875</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
         <v>0.85416666666666663</v>
       </c>
       <c r="G5" s="3">
@@ -638,14 +644,14 @@
         <v>0.16666666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
-        <f>IF(A5&lt;&gt;"",A5+1,"")</f>
-        <v>43963</v>
+        <f>IF(B3&lt;&gt;"",B3+1,"")</f>
+        <v>43984</v>
       </c>
       <c r="B6" s="4">
-        <f>IF(B5&lt;&gt;"",B5+5,"")</f>
-        <v>43967</v>
+        <f>IF(B5&lt;&gt;"",B5+1,"")</f>
+        <v>43984</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -664,17 +670,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
-        <f>IF(A5&lt;&gt;"",A5+2,"")</f>
-        <v>43964</v>
+        <f>IF(B3&lt;&gt;"",B3+2,"")</f>
+        <v>43985</v>
       </c>
       <c r="B7" s="4">
         <f>IF(B5&lt;&gt;"",B5+2,"")</f>
-        <v>43964</v>
+        <v>43985</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -683,21 +689,21 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="G7" s="3">
         <f>(D7-C7)+(F7-E7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.14583333333333326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
-        <f>IF(A5&lt;&gt;"",A5+3,"")</f>
-        <v>43965</v>
+        <f>IF(B3&lt;&gt;"",B3+3,"")</f>
+        <v>43986</v>
       </c>
       <c r="B8" s="4">
         <f>IF(B5&lt;&gt;"",B5+3,"")</f>
-        <v>43965</v>
+        <v>43986</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -716,14 +722,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
-        <f>IF(A5&lt;&gt;"",A5+4,"")</f>
-        <v>43966</v>
+        <f>IF(B3&lt;&gt;"",B3+4,"")</f>
+        <v>43987</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B5&lt;&gt;"",B5+4,"")</f>
-        <v>43966</v>
+        <v>43987</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -743,32 +749,32 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="7">
         <f>SUM(G5:G9)</f>
-        <v>0.16666666666666663</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.31249999999999989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="6">
-        <v>43969</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <f>B13</f>
-        <v>43969</v>
+        <v>43990</v>
       </c>
       <c r="B15" s="4">
         <f>B13</f>
-        <v>43969</v>
+        <v>43990</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -787,13 +793,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <f>IF(A15&lt;&gt;"",A15+1,"")</f>
-        <v>43970</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>9</v>
+        <v>43991</v>
+      </c>
+      <c r="B16" s="4">
+        <f>IF(B15&lt;&gt;"",B15+1,"")</f>
+        <v>43991</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -812,14 +819,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <f>IF(A15&lt;&gt;"",A15+2,"")</f>
-        <v>43971</v>
+        <v>43992</v>
       </c>
       <c r="B17" s="4">
         <f>IF(B15&lt;&gt;"",B15+2,"")</f>
-        <v>43971</v>
+        <v>43992</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -838,14 +845,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <f>IF(A15&lt;&gt;"",A15+3,"")</f>
-        <v>43972</v>
+        <v>43993</v>
       </c>
       <c r="B18" s="4">
         <f>IF(B15&lt;&gt;"",B15+3,"")</f>
-        <v>43972</v>
+        <v>43993</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -864,14 +871,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <f>IF(A15&lt;&gt;"",A15+4,"")</f>
-        <v>43973</v>
+        <v>43994</v>
       </c>
       <c r="B19" s="4">
         <f>IF(B15&lt;&gt;"",B15+4,"")</f>
-        <v>43973</v>
+        <v>43994</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -891,7 +898,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F21" s="1" t="s">
         <v>1</v>
       </c>
@@ -901,26 +908,27 @@
       </c>
       <c r="H21" s="8">
         <f>SUM(G11, G21)</f>
-        <v>0.16666666666666663</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.31249999999999989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="6">
-        <v>43976</v>
+      <c r="B23" s="5">
+        <f>IF(B13&lt;&gt;"",B13+7,"")</f>
+        <v>43997</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <f>B23</f>
-        <v>43976</v>
+        <v>43997</v>
       </c>
       <c r="B25" s="4">
         <f>B23</f>
-        <v>43976</v>
+        <v>43997</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -939,14 +947,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <f>IF(A25&lt;&gt;"",A25+1,"")</f>
-        <v>43977</v>
+        <v>43998</v>
       </c>
       <c r="B26" s="4">
         <f>IF(B25&lt;&gt;"",B25+1,"")</f>
-        <v>43977</v>
+        <v>43998</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -965,14 +973,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <f>IF(A25&lt;&gt;"",A25+2,"")</f>
-        <v>43978</v>
+        <v>43999</v>
       </c>
       <c r="B27" s="4">
         <f>IF(B25&lt;&gt;"",B25+2,"")</f>
-        <v>43978</v>
+        <v>43999</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -991,14 +999,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <f>IF(A25&lt;&gt;"",A25+3,"")</f>
-        <v>43979</v>
+        <v>44000</v>
       </c>
       <c r="B28" s="4">
         <f>IF(B25&lt;&gt;"",B25+3,"")</f>
-        <v>43979</v>
+        <v>44000</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -1017,14 +1025,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <f>IF(A25&lt;&gt;"",A25+4,"")</f>
-        <v>43980</v>
+        <v>44001</v>
       </c>
       <c r="B29" s="4">
         <f>IF(B25&lt;&gt;"",B25+4,"")</f>
-        <v>43980</v>
+        <v>44001</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -1044,7 +1052,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F31" s="1" t="s">
         <v>1</v>
       </c>
@@ -1053,24 +1061,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="6">
         <f>IF(A25&lt;&gt;"",A25+7,"")</f>
-        <v>43983</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <f>B33</f>
-        <v>43983</v>
+        <v>44004</v>
       </c>
       <c r="B35" s="4">
         <f>B33</f>
-        <v>43983</v>
+        <v>44004</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
@@ -1089,14 +1097,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <f>IF(A35&lt;&gt;"",A35+1,"")</f>
-        <v>43984</v>
+        <v>44005</v>
       </c>
       <c r="B36" s="4">
         <f>IF(B35&lt;&gt;"",B35+1,"")</f>
-        <v>43984</v>
+        <v>44005</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -1115,14 +1123,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <f>IF(A35&lt;&gt;"",A35+2,"")</f>
-        <v>43985</v>
+        <v>44006</v>
       </c>
       <c r="B37" s="4">
         <f>IF(B35&lt;&gt;"",B35+2,"")</f>
-        <v>43985</v>
+        <v>44006</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
@@ -1141,14 +1149,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <f>IF(A35&lt;&gt;"",A35+3,"")</f>
-        <v>43986</v>
+        <v>44007</v>
       </c>
       <c r="B38" s="4">
         <f>IF(B35&lt;&gt;"",B35+3,"")</f>
-        <v>43986</v>
+        <v>44007</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
@@ -1167,14 +1175,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <f>IF(A35&lt;&gt;"",A35+4,"")</f>
-        <v>43987</v>
+        <v>44008</v>
       </c>
       <c r="B39" s="4">
         <f>IF(B35&lt;&gt;"",B35+4,"")</f>
-        <v>43987</v>
+        <v>44008</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
@@ -1194,7 +1202,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
@@ -1207,24 +1215,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="6">
         <f>IF(A35&lt;&gt;"",A35+7,"")</f>
-        <v>43990</v>
+        <v>44011</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
         <f>B43</f>
-        <v>43990</v>
+        <v>44011</v>
       </c>
       <c r="B45" s="4">
         <f>B43</f>
-        <v>43990</v>
+        <v>44011</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -1243,14 +1251,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
         <f>IF(A45&lt;&gt;"",A45+1,"")</f>
-        <v>43991</v>
+        <v>44012</v>
       </c>
       <c r="B46" s="4">
         <f>IF(B45&lt;&gt;"",B45+1,"")</f>
-        <v>43991</v>
+        <v>44012</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -1269,14 +1277,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
         <f>IF(A45&lt;&gt;"",A45+2,"")</f>
-        <v>43992</v>
+        <v>44013</v>
       </c>
       <c r="B47" s="4">
         <f>IF(B45&lt;&gt;"",B45+2,"")</f>
-        <v>43992</v>
+        <v>44013</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -1295,14 +1303,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="5">
         <f>IF(A45&lt;&gt;"",A45+3,"")</f>
-        <v>43993</v>
+        <v>44014</v>
       </c>
       <c r="B48" s="4">
         <f>IF(B45&lt;&gt;"",B45+3,"")</f>
-        <v>43993</v>
+        <v>44014</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -1321,14 +1329,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
         <f>IF(A45&lt;&gt;"",A45+4,"")</f>
-        <v>43994</v>
+        <v>44015</v>
       </c>
       <c r="B49" s="4">
         <f>IF(B45&lt;&gt;"",B45+4,"")</f>
-        <v>43994</v>
+        <v>44015</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -1348,7 +1356,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F51" s="1" t="s">
         <v>1</v>
       </c>
@@ -1357,24 +1365,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="6">
         <f>IF(A45&lt;&gt;"",A45+7,"")</f>
-        <v>43997</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="5">
         <f>B53</f>
-        <v>43997</v>
+        <v>44018</v>
       </c>
       <c r="B55" s="4">
         <f>B53</f>
-        <v>43997</v>
+        <v>44018</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -1393,14 +1401,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="5">
         <f>IF(A55&lt;&gt;"",A55+1,"")</f>
-        <v>43998</v>
+        <v>44019</v>
       </c>
       <c r="B56" s="4">
         <f>IF(B55&lt;&gt;"",B55+1,"")</f>
-        <v>43998</v>
+        <v>44019</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -1419,14 +1427,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="5">
         <f>IF(A55&lt;&gt;"",A55+2,"")</f>
-        <v>43999</v>
+        <v>44020</v>
       </c>
       <c r="B57" s="4">
         <f>IF(B55&lt;&gt;"",B55+2,"")</f>
-        <v>43999</v>
+        <v>44020</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -1445,14 +1453,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="5">
         <f>IF(A55&lt;&gt;"",A55+3,"")</f>
-        <v>44000</v>
+        <v>44021</v>
       </c>
       <c r="B58" s="4">
         <f>IF(B55&lt;&gt;"",B55+3,"")</f>
-        <v>44000</v>
+        <v>44021</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -1471,14 +1479,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="5">
         <f>IF(A55&lt;&gt;"",A55+4,"")</f>
-        <v>44001</v>
+        <v>44022</v>
       </c>
       <c r="B59" s="4">
         <f>IF(B55&lt;&gt;"",B55+4,"")</f>
-        <v>44001</v>
+        <v>44022</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -1498,7 +1506,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F61" s="1" t="s">
         <v>1</v>
       </c>
@@ -1511,24 +1519,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B63" s="6">
         <f>IF(A55&lt;&gt;"",A55+7,"")</f>
-        <v>44004</v>
+        <v>44025</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="5">
         <f>B63</f>
-        <v>44004</v>
+        <v>44025</v>
       </c>
       <c r="B65" s="4">
         <f>B63</f>
-        <v>44004</v>
+        <v>44025</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -1547,14 +1555,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="5">
         <f>IF(A65&lt;&gt;"",A65+1,"")</f>
-        <v>44005</v>
+        <v>44026</v>
       </c>
       <c r="B66" s="4">
         <f>IF(B65&lt;&gt;"",B65+1,"")</f>
-        <v>44005</v>
+        <v>44026</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -1573,14 +1581,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="5">
         <f>IF(A65&lt;&gt;"",A65+2,"")</f>
-        <v>44006</v>
+        <v>44027</v>
       </c>
       <c r="B67" s="4">
         <f>IF(B65&lt;&gt;"",B65+2,"")</f>
-        <v>44006</v>
+        <v>44027</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -1599,14 +1607,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="5">
         <f>IF(A65&lt;&gt;"",A65+3,"")</f>
-        <v>44007</v>
+        <v>44028</v>
       </c>
       <c r="B68" s="4">
         <f>IF(B65&lt;&gt;"",B65+3,"")</f>
-        <v>44007</v>
+        <v>44028</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -1625,14 +1633,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="5">
         <f>IF(A65&lt;&gt;"",A65+4,"")</f>
-        <v>44008</v>
+        <v>44029</v>
       </c>
       <c r="B69" s="4">
         <f>IF(B65&lt;&gt;"",B65+4,"")</f>
-        <v>44008</v>
+        <v>44029</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -1652,7 +1660,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F71" s="1" t="s">
         <v>1</v>
       </c>
@@ -1661,24 +1669,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B73" s="6">
         <f>IF(A65&lt;&gt;"",A65+7,"")</f>
-        <v>44011</v>
+        <v>44032</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="5">
         <f>B73</f>
-        <v>44011</v>
+        <v>44032</v>
       </c>
       <c r="B75" s="4">
         <f>B73</f>
-        <v>44011</v>
+        <v>44032</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -1697,14 +1705,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="5">
         <f>IF(A75&lt;&gt;"",A75+1,"")</f>
-        <v>44012</v>
+        <v>44033</v>
       </c>
       <c r="B76" s="4">
         <f>IF(B75&lt;&gt;"",B75+1,"")</f>
-        <v>44012</v>
+        <v>44033</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -1723,14 +1731,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="5">
         <f>IF(A75&lt;&gt;"",A75+2,"")</f>
-        <v>44013</v>
+        <v>44034</v>
       </c>
       <c r="B77" s="4">
         <f>IF(B75&lt;&gt;"",B75+2,"")</f>
-        <v>44013</v>
+        <v>44034</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -1749,14 +1757,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="5">
         <f>IF(A75&lt;&gt;"",A75+3,"")</f>
-        <v>44014</v>
+        <v>44035</v>
       </c>
       <c r="B78" s="4">
         <f>IF(B75&lt;&gt;"",B75+3,"")</f>
-        <v>44014</v>
+        <v>44035</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -1775,14 +1783,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="5">
         <f>IF(A75&lt;&gt;"",A75+4,"")</f>
-        <v>44015</v>
+        <v>44036</v>
       </c>
       <c r="B79" s="4">
         <f>IF(B75&lt;&gt;"",B75+4,"")</f>
-        <v>44015</v>
+        <v>44036</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -1802,7 +1810,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F81" s="1" t="s">
         <v>1</v>
       </c>

--- a/TimesheetWade.xlsx
+++ b/TimesheetWade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Windows Files\Github\KiCad-PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D045D3-0BEE-43F1-A5BC-0D9AE1A16A29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1420B91-A413-4F99-A7CB-654E7E1F81C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,7 +576,7 @@
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -706,7 +706,7 @@
         <v>43986</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -715,11 +715,11 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="G8" s="3">
         <f>(D8-C8)+(F8-E8)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -755,7 +755,7 @@
       </c>
       <c r="G11" s="7">
         <f>SUM(G5:G9)</f>
-        <v>0.31249999999999989</v>
+        <v>0.43749999999999989</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -908,7 +908,7 @@
       </c>
       <c r="H21" s="8">
         <f>SUM(G11, G21)</f>
-        <v>0.31249999999999989</v>
+        <v>0.43749999999999989</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">

--- a/TimesheetWade.xlsx
+++ b/TimesheetWade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Windows Files\Github\KiCad-PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1420B91-A413-4F99-A7CB-654E7E1F81C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E209F815-EF03-4439-B8AC-4372BC3EEC94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,8 +575,8 @@
   </sheetPr>
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -803,7 +803,7 @@
         <v>43991</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -812,11 +812,11 @@
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="G16" s="3">
         <f>(D16-C16)+(F16-E16)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -881,7 +881,7 @@
         <v>43994</v>
       </c>
       <c r="C19" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -890,11 +890,11 @@
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G19" s="3">
         <f>(D19-C19)+(F19-E19)</f>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -904,12 +904,9 @@
       </c>
       <c r="G21" s="7">
         <f>SUM(G15:G19)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="8">
-        <f>SUM(G11, G21)</f>
-        <v>0.43749999999999989</v>
-      </c>
+        <v>0.22916666666666663</v>
+      </c>
+      <c r="H21" s="8"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">

--- a/TimesheetWade.xlsx
+++ b/TimesheetWade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Windows Files\Github\KiCad-PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E209F815-EF03-4439-B8AC-4372BC3EEC94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0CEE16-644A-4266-9475-2E9610B73E67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +166,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -232,7 +238,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="3" xfId="3" applyNumberFormat="1"/>
@@ -250,6 +256,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
@@ -575,8 +582,8 @@
   </sheetPr>
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -954,7 +961,7 @@
         <v>43998</v>
       </c>
       <c r="C26" s="2">
-        <v>0</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -963,11 +970,11 @@
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="G26" s="3">
         <f>(D26-C26)+(F26-E26)</f>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1055,7 +1062,11 @@
       </c>
       <c r="G31" s="7">
         <f>SUM(G25:G29)</f>
-        <v>0</v>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="H31" s="13">
+        <f>SUM(G21,G31)</f>
+        <v>0.33333333333333326</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1209,7 +1220,7 @@
       </c>
       <c r="H41" s="8">
         <f>SUM(G31, G41)</f>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">

--- a/TimesheetWade.xlsx
+++ b/TimesheetWade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Windows Files\Github\KiCad-PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0CEE16-644A-4266-9475-2E9610B73E67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE60FC39-5FA5-4E2B-8E26-BA51D612BA83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,8 +582,8 @@
   </sheetPr>
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1141,7 @@
         <v>44006</v>
       </c>
       <c r="C37" s="2">
-        <v>0</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -1150,11 +1150,11 @@
         <v>0</v>
       </c>
       <c r="F37" s="2">
-        <v>0</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="G37" s="3">
         <f>(D37-C37)+(F37-E37)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1216,11 +1216,11 @@
       </c>
       <c r="G41" s="7">
         <f>SUM(G35:G39)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H41" s="8">
         <f>SUM(G31, G41)</f>
-        <v>0.10416666666666663</v>
+        <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
